--- a/Template/Example/Табличная часть исходящих писем.xlsx
+++ b/Template/Example/Табличная часть исходящих писем.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Дополнительно" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ИсходящиеПисьмаТабличнаяЧасть!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ИсходящиеПисьмаТабличнаяЧасть!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t xml:space="preserve">Id исходящего письма в DirectumRX</t>
   </si>
@@ -72,9 +72,6 @@
     <t xml:space="preserve">Способ доставки</t>
   </si>
   <si>
-    <t xml:space="preserve">Номер</t>
-  </si>
-  <si>
     <t xml:space="preserve">Итог</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t xml:space="preserve">Курьер</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">Почта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">Строка</t>
@@ -444,12 +435,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:XEV5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -457,11 +448,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16376" min="18" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16375" min="17" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16376" min="16376" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16377" style="2" width="11.53"/>
   </cols>
   <sheetData>
@@ -478,7 +470,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -487,9 +479,7 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -498,25 +488,23 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="XEV1" s="0"/>
     </row>
     <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -525,25 +513,23 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="XEV2" s="0"/>
     </row>
     <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -552,17 +538,17 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="XEV3" s="0"/>
     </row>
     <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -571,20 +557,19 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="XEV4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H6"/>
+  <autoFilter ref="A1:G6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -617,13 +602,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,10 +616,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,10 +627,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,10 +638,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,20 +649,20 @@
         <v>14</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Example/Табличная часть исходящих писем.xlsx
+++ b/Template/Example/Табличная часть исходящих писем.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ИсходящиеПисьмаТабличнаяЧасть" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ИсходящиеПисьмаСписокПолучателе" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Дополнительно" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ИсходящиеПисьмаТабличнаяЧасть!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ИсходящиеПисьмаСписокПолучателе!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -278,6 +278,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,10 +297,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -453,111 +453,111 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16375" min="17" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16376" min="16376" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16376" min="16376" style="3" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16377" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="XEV1" s="0"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="XEV1" s="3"/>
     </row>
     <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="XEV2" s="0"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="XEV2" s="3"/>
     </row>
     <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="XEV3" s="0"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="XEV3" s="3"/>
     </row>
     <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="XEV4" s="0"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="XEV4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
@@ -595,9 +595,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -611,7 +611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="n">
         <v>2</v>
       </c>
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="n">
         <v>4</v>
       </c>
@@ -656,12 +656,12 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Template/Example/Табличная часть исходящих писем.xlsx
+++ b/Template/Example/Табличная часть исходящих писем.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\Template\Example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ИсходящиеПисьмаСписокПолучателе" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Дополнительно" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ИсходящиеПисьмаАдресаты" sheetId="1" r:id="rId1"/>
+    <sheet name="Дополнительно" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ИсходящиеПисьмаСписокПолучателе!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ИсходящиеПисьмаАдресаты!$A$1:$G$6</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,18 +28,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Попова Елена  (Popova_EI):
@@ -49,7 +52,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Организация, банк или персона</t>
+          <t>Организация, банк или персона</t>
         </r>
       </text>
     </comment>
@@ -60,108 +63,84 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
-    <t xml:space="preserve">Id исходящего письма в DirectumRX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корреспондент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Адресат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Способ доставки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итог</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Примечание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сергеев Сергей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Курьер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванов Иван</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Почта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Строка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вид</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Суть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не верная дата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не найден подготовивший</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не найден файл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не найден корреспондент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создаются в сотоянии Действующий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Журнал для регистрации аналогично договорам</t>
+    <t>Id исходящего письма в DirectumRX</t>
+  </si>
+  <si>
+    <t>Корреспондент</t>
+  </si>
+  <si>
+    <t>Адресат</t>
+  </si>
+  <si>
+    <t>Способ доставки</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Сергеев Сергей</t>
+  </si>
+  <si>
+    <t>Курьер</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Иванов Иван</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>Строка</t>
+  </si>
+  <si>
+    <t>Вид</t>
+  </si>
+  <si>
+    <t>Суть</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>не верная дата</t>
+  </si>
+  <si>
+    <t>не найден подготовивший</t>
+  </si>
+  <si>
+    <t>не найден файл</t>
+  </si>
+  <si>
+    <t>не найден корреспондент</t>
+  </si>
+  <si>
+    <t>Создаются в сотоянии Действующий</t>
+  </si>
+  <si>
+    <t>Журнал для регистрации аналогично договорам</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -204,14 +183,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFA0A0A0"/>
       </left>
@@ -226,7 +205,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFA0A0A0"/>
@@ -240,129 +219,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -421,43 +344,312 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEV5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16375" min="17" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16376" min="16376" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16377" style="2" width="11.53"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" style="2" customWidth="1"/>
+    <col min="17" max="16375" width="9.140625" style="2"/>
+    <col min="16376" max="16376" width="11.5703125" style="3" customWidth="1"/>
+    <col min="16377" max="16384" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16 16376:16376" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -490,7 +682,7 @@
       <c r="P1" s="3"/>
       <c r="XEV1" s="3"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16 16376:16376" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -515,7 +707,7 @@
       <c r="P2" s="3"/>
       <c r="XEV2" s="3"/>
     </row>
-    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16 16376:16376" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -540,7 +732,7 @@
       <c r="P3" s="3"/>
       <c r="XEV3" s="3"/>
     </row>
-    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16 16376:16376" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -559,7 +751,7 @@
       <c r="P4" s="3"/>
       <c r="XEV4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16 16376:16376" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -570,37 +762,28 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G6"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="23.14"/>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
@@ -611,8 +794,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -622,8 +805,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
         <v>4</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -633,8 +816,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -644,8 +827,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>14</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -655,23 +838,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Template/Example/Табличная часть исходящих писем.xlsx
+++ b/Template/Example/Табличная часть исходящих писем.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,39 +27,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Попова Елена  (Popova_EI):
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Организация, банк или персона</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
@@ -136,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,13 +112,6 @@
     <font>
       <sz val="9"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -268,15 +228,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -627,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEV5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -764,7 +724,6 @@
   <autoFilter ref="A1:G6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
